--- a/src/main/resources/Excel/storyMap.xlsx
+++ b/src/main/resources/Excel/storyMap.xlsx
@@ -26,7 +26,7 @@
     <t>ooxxxxoo</t>
   </si>
   <si>
-    <t>awayz is a rbq</t>
+    <t>团长好！</t>
   </si>
   <si>
     <t>eee</t>
